--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maman Sani Ibrahim\Documents\HCi3N Job Time Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B57E25-4D1F-411F-97A0-85D189190DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9652703-D3F0-4222-96D2-981CFBB7262D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="136">
   <si>
     <t>NOM &amp; PRENOM</t>
   </si>
@@ -409,17 +409,36 @@
     <t>13:02 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">TEMPS TOTAL DE FEVRIER A LA 1ere SEMAINE DU MOIS DE MAI: </t>
+    <t>17/5/2023</t>
+  </si>
+  <si>
+    <t>Conge et maladie</t>
+  </si>
+  <si>
+    <t>Observations :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMPS TOTAL passer au bureau DE Mi-FEVRIER Au 8 MAI: </t>
+  </si>
+  <si>
+    <t>soit 10 jours d'absence</t>
+  </si>
+  <si>
+    <t>Temps d'absence egal =</t>
+  </si>
+  <si>
+    <t>Pour 44 jours de travail = 40h/semaine * nombre de semaine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -443,7 +462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +510,24 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -505,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -517,11 +554,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
@@ -828,10 +869,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J50" activeCellId="9" sqref="A50 B50 C50 D50 E50 F50 G50 H50 I50 J50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,18 +1118,42 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1104,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1116,16 +1181,16 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.18055555555555561</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1142,28 +1207,28 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1">
-        <v>0.18055555555555561</v>
+        <v>0.28125</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1180,28 +1245,28 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K10" s="1">
-        <v>0.28125</v>
+        <v>0.1993055555555556</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1218,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -1230,16 +1295,16 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K11" s="1">
-        <v>0.1993055555555556</v>
+        <v>0.2097222222222222</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1256,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1268,16 +1333,16 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K12" s="1">
-        <v>0.2097222222222222</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1294,7 +1359,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1306,16 +1371,16 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K13" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.23750000000000002</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1332,28 +1397,28 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1">
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>59</v>
+        <v>0.29583333333333328</v>
+      </c>
+      <c r="L14" s="8">
+        <v>44929</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1370,28 +1435,28 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K15" s="1">
-        <v>0.29583333333333328</v>
+        <v>0.22569444444444439</v>
       </c>
       <c r="L15" s="8">
-        <v>44929</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1408,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1420,16 +1485,16 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K16" s="1">
-        <v>0.22569444444444439</v>
+        <v>0.28125</v>
       </c>
       <c r="L16" s="8">
-        <v>44960</v>
+        <v>44988</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1446,28 +1511,28 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K17" s="1">
-        <v>0.28125</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="L17" s="8">
-        <v>44988</v>
+        <v>45080</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1484,28 +1549,28 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="1">
-        <v>0.31458333333333333</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="L18" s="8">
-        <v>45080</v>
+        <v>45110</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1522,7 +1587,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1534,16 +1599,16 @@
         <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K19" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.1993055555555556</v>
       </c>
       <c r="L19" s="8">
-        <v>45110</v>
+        <v>45141</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1560,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1572,16 +1637,16 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K20" s="1">
-        <v>0.1993055555555556</v>
+        <v>0.24583333333333329</v>
       </c>
       <c r="L20" s="8">
-        <v>45141</v>
+        <v>45172</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1610,16 +1675,16 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K21" s="1">
-        <v>0.24583333333333329</v>
+        <v>0.17777777777777781</v>
       </c>
       <c r="L21" s="8">
-        <v>45172</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1636,7 +1701,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1648,16 +1713,16 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K22" s="1">
-        <v>0.17777777777777781</v>
-      </c>
-      <c r="L22" s="8">
-        <v>45202</v>
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="L22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1674,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1686,16 +1751,16 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K23" s="1">
-        <v>0.32013888888888892</v>
+        <v>0.18888888888888891</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1712,7 +1777,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1724,16 +1789,16 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K24" s="1">
-        <v>0.18888888888888891</v>
+        <v>0.32361111111111113</v>
       </c>
       <c r="L24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1750,7 +1815,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1762,16 +1827,16 @@
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K25" s="1">
-        <v>0.32361111111111113</v>
+        <v>0.2208333333333333</v>
       </c>
       <c r="L25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1788,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1800,16 +1865,16 @@
         <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K26" s="1">
-        <v>0.2208333333333333</v>
+        <v>0.1784722222222222</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1826,28 +1891,28 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K27" s="1">
-        <v>0.1784722222222222</v>
-      </c>
-      <c r="L27" t="s">
-        <v>86</v>
+        <v>0.2472222222222222</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1864,28 +1929,28 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="K28" s="1">
-        <v>0.2472222222222222</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>91</v>
+        <v>0.25694444444444442</v>
+      </c>
+      <c r="L28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1902,7 +1967,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1914,16 +1979,16 @@
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K29" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.27569444444444452</v>
       </c>
       <c r="L29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1940,7 +2005,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1952,16 +2017,16 @@
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J30" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K30" s="1">
-        <v>0.27569444444444452</v>
+        <v>0.31388888888888888</v>
       </c>
       <c r="L30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1978,7 +2043,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1990,16 +2055,16 @@
         <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K31" s="1">
-        <v>0.31388888888888888</v>
+        <v>0.28125</v>
       </c>
       <c r="L31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2016,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -2028,16 +2093,16 @@
         <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K32" s="1">
-        <v>0.28125</v>
+        <v>0.29097222222222219</v>
       </c>
       <c r="L32" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -2054,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2066,16 +2131,16 @@
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K33" s="1">
-        <v>0.29097222222222219</v>
+        <v>0.30416666666666659</v>
       </c>
       <c r="L33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2092,7 +2157,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2104,16 +2169,16 @@
         <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K34" s="1">
-        <v>0.30416666666666659</v>
+        <v>0.22569444444444439</v>
       </c>
       <c r="L34" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2130,7 +2195,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2142,16 +2207,16 @@
         <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J35" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K35" s="1">
-        <v>0.22569444444444439</v>
-      </c>
-      <c r="L35" t="s">
-        <v>110</v>
+        <v>0.18055555555555561</v>
+      </c>
+      <c r="L35" s="8">
+        <v>44989</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2168,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2180,16 +2245,16 @@
         <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K36" s="1">
-        <v>0.18055555555555561</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="L36" s="8">
-        <v>44989</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2206,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2218,16 +2283,16 @@
         <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K37" s="1">
-        <v>0.2951388888888889</v>
+        <v>0.31319444444444439</v>
       </c>
       <c r="L37" s="8">
-        <v>45020</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2244,7 +2309,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2256,16 +2321,16 @@
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K38" s="1">
-        <v>0.31319444444444439</v>
+        <v>0.32361111111111113</v>
       </c>
       <c r="L38" s="8">
-        <v>45050</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2282,7 +2347,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2294,16 +2359,16 @@
         <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K39" s="1">
-        <v>0.32361111111111113</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="L39" s="8">
-        <v>45081</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2320,7 +2385,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2332,16 +2397,16 @@
         <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J40" t="s">
         <v>37</v>
       </c>
       <c r="K40" s="1">
-        <v>0.36249999999999999</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="L40" s="8">
-        <v>45111</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2358,7 +2423,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2370,16 +2435,16 @@
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J41" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K41" s="1">
-        <v>0.16666666666666671</v>
+        <v>0.34791666666666671</v>
       </c>
       <c r="L41" s="8">
-        <v>45051</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2396,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2408,16 +2473,16 @@
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K42" s="1">
-        <v>0.34791666666666671</v>
+        <v>0.38680555555555562</v>
       </c>
       <c r="L42" s="8">
-        <v>45143</v>
+        <v>45174</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2434,7 +2499,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -2446,16 +2511,16 @@
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K43" s="1">
-        <v>0.38680555555555562</v>
+        <v>0.39513888888888887</v>
       </c>
       <c r="L43" s="8">
-        <v>45174</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2472,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2484,16 +2549,16 @@
         <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K44" s="1">
-        <v>0.39513888888888887</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="L44" s="8">
-        <v>45204</v>
+        <v>45235</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2510,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2522,74 +2587,89 @@
         <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K45" s="1">
-        <v>0.3263888888888889</v>
+        <v>0.15763888888888891</v>
       </c>
       <c r="L45" s="8">
-        <v>45235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" t="s">
-        <v>128</v>
-      </c>
-      <c r="J46" t="s">
-        <v>37</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0.15763888888888891</v>
-      </c>
-      <c r="L46" s="8">
         <v>45265</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="17">
+        <v>14.666666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="13">
+        <f>SUM(K2:K45)</f>
+        <v>11.344444444444443</v>
+      </c>
+      <c r="L49" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="16">
+        <f>K48-K49</f>
+        <v>3.3222222222222229</v>
+      </c>
+      <c r="L51" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:L7"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
 </worksheet>
